--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntf5-Ngfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntf5-Ngfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Ntf5</t>
+  </si>
+  <si>
+    <t>Ngfr</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ntf5</t>
-  </si>
-  <si>
-    <t>Ngfr</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -546,40 +543,40 @@
         <v>1.077133</v>
       </c>
       <c r="I2">
-        <v>0.408865244861821</v>
+        <v>0.480597973884934</v>
       </c>
       <c r="J2">
-        <v>0.408865244861821</v>
+        <v>0.480597973884934</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1900966666666667</v>
+        <v>0.1199136666666667</v>
       </c>
       <c r="N2">
-        <v>0.57029</v>
+        <v>0.359741</v>
       </c>
       <c r="O2">
-        <v>0.05523110599154212</v>
+        <v>0.03475238343556118</v>
       </c>
       <c r="P2">
-        <v>0.05523110599154211</v>
+        <v>0.03475238343556118</v>
       </c>
       <c r="Q2">
-        <v>0.06825313095222221</v>
+        <v>0.04305432250588888</v>
       </c>
       <c r="R2">
-        <v>0.6142781785699999</v>
+        <v>0.3874889025529999</v>
       </c>
       <c r="S2">
-        <v>0.02258207967522106</v>
+        <v>0.01670192506680305</v>
       </c>
       <c r="T2">
-        <v>0.02258207967522105</v>
+        <v>0.01670192506680305</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +605,10 @@
         <v>1.077133</v>
       </c>
       <c r="I3">
-        <v>0.408865244861821</v>
+        <v>0.480597973884934</v>
       </c>
       <c r="J3">
-        <v>0.408865244861821</v>
+        <v>0.480597973884934</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,25 +620,25 @@
         <v>0.247271</v>
       </c>
       <c r="N3">
-        <v>0.7418129999999999</v>
+        <v>0.7418130000000001</v>
       </c>
       <c r="O3">
-        <v>0.07184266325712152</v>
+        <v>0.07166202855244176</v>
       </c>
       <c r="P3">
-        <v>0.07184266325712152</v>
+        <v>0.07166202855244176</v>
       </c>
       <c r="Q3">
-        <v>0.08878125134766665</v>
+        <v>0.08878125134766666</v>
       </c>
       <c r="R3">
-        <v>0.7990312621289999</v>
+        <v>0.799031262129</v>
       </c>
       <c r="S3">
-        <v>0.02937396810414834</v>
+        <v>0.0344406257267878</v>
       </c>
       <c r="T3">
-        <v>0.02937396810414834</v>
+        <v>0.0344406257267878</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -670,40 +667,40 @@
         <v>1.077133</v>
       </c>
       <c r="I4">
-        <v>0.408865244861821</v>
+        <v>0.480597973884934</v>
       </c>
       <c r="J4">
-        <v>0.408865244861821</v>
+        <v>0.480597973884934</v>
       </c>
       <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.05333966666666667</v>
+        <v>0.355759</v>
       </c>
       <c r="N4">
-        <v>0.160019</v>
+        <v>1.067277</v>
       </c>
       <c r="O4">
-        <v>0.0154974247306819</v>
+        <v>0.1031031201224087</v>
       </c>
       <c r="P4">
-        <v>0.01549742473068189</v>
+        <v>0.1031031201224087</v>
       </c>
       <c r="Q4">
-        <v>0.01915130505855555</v>
+        <v>0.1277332529823333</v>
       </c>
       <c r="R4">
-        <v>0.172361745527</v>
+        <v>1.149599276841</v>
       </c>
       <c r="S4">
-        <v>0.006336358357237893</v>
+        <v>0.04955115063204459</v>
       </c>
       <c r="T4">
-        <v>0.006336358357237892</v>
+        <v>0.0495511506320446</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -732,10 +729,10 @@
         <v>1.077133</v>
       </c>
       <c r="I5">
-        <v>0.408865244861821</v>
+        <v>0.480597973884934</v>
       </c>
       <c r="J5">
-        <v>0.408865244861821</v>
+        <v>0.480597973884934</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.951133333333333</v>
+        <v>2.727572666666667</v>
       </c>
       <c r="N5">
-        <v>8.853400000000001</v>
+        <v>8.182718000000001</v>
       </c>
       <c r="O5">
-        <v>0.8574288060206544</v>
+        <v>0.7904824678895883</v>
       </c>
       <c r="P5">
-        <v>0.8574288060206544</v>
+        <v>0.7904824678895883</v>
       </c>
       <c r="Q5">
-        <v>1.059587700244444</v>
+        <v>0.9793195097215556</v>
       </c>
       <c r="R5">
-        <v>9.5362893022</v>
+        <v>8.813875587494001</v>
       </c>
       <c r="S5">
-        <v>0.3505728387252137</v>
+        <v>0.3799042724592985</v>
       </c>
       <c r="T5">
-        <v>0.3505728387252137</v>
+        <v>0.3799042724592986</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,46 +785,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.2470073333333334</v>
+        <v>0.388034</v>
       </c>
       <c r="H6">
-        <v>0.7410220000000001</v>
+        <v>1.164102</v>
       </c>
       <c r="I6">
-        <v>0.2812820157566395</v>
+        <v>0.519402026115066</v>
       </c>
       <c r="J6">
-        <v>0.2812820157566395</v>
+        <v>0.5194020261150661</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1900966666666667</v>
+        <v>0.1199136666666667</v>
       </c>
       <c r="N6">
-        <v>0.57029</v>
+        <v>0.359741</v>
       </c>
       <c r="O6">
-        <v>0.05523110599154212</v>
+        <v>0.03475238343556118</v>
       </c>
       <c r="P6">
-        <v>0.05523110599154211</v>
+        <v>0.03475238343556118</v>
       </c>
       <c r="Q6">
-        <v>0.04695527070888889</v>
+        <v>0.04653057973133333</v>
       </c>
       <c r="R6">
-        <v>0.42259743638</v>
+        <v>0.418775217582</v>
       </c>
       <c r="S6">
-        <v>0.01553551682576958</v>
+        <v>0.01805045836875814</v>
       </c>
       <c r="T6">
-        <v>0.01553551682576957</v>
+        <v>0.01805045836875814</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -850,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.2470073333333334</v>
+        <v>0.388034</v>
       </c>
       <c r="H7">
-        <v>0.7410220000000001</v>
+        <v>1.164102</v>
       </c>
       <c r="I7">
-        <v>0.2812820157566395</v>
+        <v>0.519402026115066</v>
       </c>
       <c r="J7">
-        <v>0.2812820157566395</v>
+        <v>0.5194020261150661</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,25 +868,25 @@
         <v>0.247271</v>
       </c>
       <c r="N7">
-        <v>0.7418129999999999</v>
+        <v>0.7418130000000001</v>
       </c>
       <c r="O7">
-        <v>0.07184266325712152</v>
+        <v>0.07166202855244176</v>
       </c>
       <c r="P7">
-        <v>0.07184266325712152</v>
+        <v>0.07166202855244176</v>
       </c>
       <c r="Q7">
-        <v>0.06107775032066667</v>
+        <v>0.095949555214</v>
       </c>
       <c r="R7">
-        <v>0.549699752886</v>
+        <v>0.8635459969260001</v>
       </c>
       <c r="S7">
-        <v>0.0202080491382886</v>
+        <v>0.03722140282565396</v>
       </c>
       <c r="T7">
-        <v>0.0202080491382886</v>
+        <v>0.03722140282565397</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -912,46 +909,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.2470073333333334</v>
+        <v>0.388034</v>
       </c>
       <c r="H8">
-        <v>0.7410220000000001</v>
+        <v>1.164102</v>
       </c>
       <c r="I8">
-        <v>0.2812820157566395</v>
+        <v>0.519402026115066</v>
       </c>
       <c r="J8">
-        <v>0.2812820157566395</v>
+        <v>0.5194020261150661</v>
       </c>
       <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
         <v>1</v>
       </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M8">
-        <v>0.05333966666666667</v>
+        <v>0.355759</v>
       </c>
       <c r="N8">
-        <v>0.160019</v>
+        <v>1.067277</v>
       </c>
       <c r="O8">
-        <v>0.0154974247306819</v>
+        <v>0.1031031201224087</v>
       </c>
       <c r="P8">
-        <v>0.01549742473068189</v>
+        <v>0.1031031201224087</v>
       </c>
       <c r="Q8">
-        <v>0.01317528882422222</v>
+        <v>0.138046587806</v>
       </c>
       <c r="R8">
-        <v>0.118577599418</v>
+        <v>1.242419290254</v>
       </c>
       <c r="S8">
-        <v>0.004359146867282999</v>
+        <v>0.05355196949036412</v>
       </c>
       <c r="T8">
-        <v>0.004359146867282998</v>
+        <v>0.05355196949036413</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -974,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.2470073333333334</v>
+        <v>0.388034</v>
       </c>
       <c r="H9">
-        <v>0.7410220000000001</v>
+        <v>1.164102</v>
       </c>
       <c r="I9">
-        <v>0.2812820157566395</v>
+        <v>0.519402026115066</v>
       </c>
       <c r="J9">
-        <v>0.2812820157566395</v>
+        <v>0.5194020261150661</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.951133333333333</v>
+        <v>2.727572666666667</v>
       </c>
       <c r="N9">
-        <v>8.853400000000001</v>
+        <v>8.182718000000001</v>
       </c>
       <c r="O9">
-        <v>0.8574288060206544</v>
+        <v>0.7904824678895883</v>
       </c>
       <c r="P9">
-        <v>0.8574288060206544</v>
+        <v>0.7904824678895883</v>
       </c>
       <c r="Q9">
-        <v>0.7289515749777778</v>
+        <v>1.058390932137333</v>
       </c>
       <c r="R9">
-        <v>6.560564174800001</v>
+        <v>9.525518389236002</v>
       </c>
       <c r="S9">
-        <v>0.2411793029252983</v>
+        <v>0.4105781954302898</v>
       </c>
       <c r="T9">
-        <v>0.2411793029252983</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.2720966666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.81629</v>
-      </c>
-      <c r="I10">
-        <v>0.3098527393815396</v>
-      </c>
-      <c r="J10">
-        <v>0.3098527393815396</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.1900966666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.57029</v>
-      </c>
-      <c r="O10">
-        <v>0.05523110599154212</v>
-      </c>
-      <c r="P10">
-        <v>0.05523110599154211</v>
-      </c>
-      <c r="Q10">
-        <v>0.05172466934444444</v>
-      </c>
-      <c r="R10">
-        <v>0.4655220240999999</v>
-      </c>
-      <c r="S10">
-        <v>0.01711350949055149</v>
-      </c>
-      <c r="T10">
-        <v>0.01711350949055149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.2720966666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.81629</v>
-      </c>
-      <c r="I11">
-        <v>0.3098527393815396</v>
-      </c>
-      <c r="J11">
-        <v>0.3098527393815396</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>0.247271</v>
-      </c>
-      <c r="N11">
-        <v>0.7418129999999999</v>
-      </c>
-      <c r="O11">
-        <v>0.07184266325712152</v>
-      </c>
-      <c r="P11">
-        <v>0.07184266325712152</v>
-      </c>
-      <c r="Q11">
-        <v>0.06728161486333332</v>
-      </c>
-      <c r="R11">
-        <v>0.6055345337699999</v>
-      </c>
-      <c r="S11">
-        <v>0.02226064601468458</v>
-      </c>
-      <c r="T11">
-        <v>0.02226064601468458</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.2720966666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.81629</v>
-      </c>
-      <c r="I12">
-        <v>0.3098527393815396</v>
-      </c>
-      <c r="J12">
-        <v>0.3098527393815396</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.05333966666666667</v>
-      </c>
-      <c r="N12">
-        <v>0.160019</v>
-      </c>
-      <c r="O12">
-        <v>0.0154974247306819</v>
-      </c>
-      <c r="P12">
-        <v>0.01549742473068189</v>
-      </c>
-      <c r="Q12">
-        <v>0.01451354550111111</v>
-      </c>
-      <c r="R12">
-        <v>0.13062190951</v>
-      </c>
-      <c r="S12">
-        <v>0.004801919506161004</v>
-      </c>
-      <c r="T12">
-        <v>0.004801919506161003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.2720966666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.81629</v>
-      </c>
-      <c r="I13">
-        <v>0.3098527393815396</v>
-      </c>
-      <c r="J13">
-        <v>0.3098527393815396</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.951133333333333</v>
-      </c>
-      <c r="N13">
-        <v>8.853400000000001</v>
-      </c>
-      <c r="O13">
-        <v>0.8574288060206544</v>
-      </c>
-      <c r="P13">
-        <v>0.8574288060206544</v>
-      </c>
-      <c r="Q13">
-        <v>0.8029935428888889</v>
-      </c>
-      <c r="R13">
-        <v>7.226941886000001</v>
-      </c>
-      <c r="S13">
-        <v>0.2656766643701425</v>
-      </c>
-      <c r="T13">
-        <v>0.2656766643701425</v>
+        <v>0.4105781954302899</v>
       </c>
     </row>
   </sheetData>
